--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/118.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/118.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2698938633651702</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.74906882167862</v>
+        <v>-1.746890379214739</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07829576028145969</v>
+        <v>0.07772281732130623</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2687266613725817</v>
+        <v>-0.2695120969141107</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2868181284325401</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.74887600433626</v>
+        <v>-1.746411090392303</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06823305603898439</v>
+        <v>0.06843925254387478</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2365899129729855</v>
+        <v>-0.2374430313367305</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.306138021752119</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.802413116709061</v>
+        <v>-1.799331187269554</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1018698446611801</v>
+        <v>0.1018761407376653</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2655817711682229</v>
+        <v>-0.2661358258989207</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.3115900202048952</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.970848902879447</v>
+        <v>-1.967597766384401</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1627292939862712</v>
+        <v>0.162592354322718</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2934686679403072</v>
+        <v>-0.2933285802385114</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2967457461912444</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.960173905198786</v>
+        <v>-1.957057347338611</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3146473234977284</v>
+        <v>0.3137013380058267</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3126449428951135</v>
+        <v>-0.3125473537095928</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2653888671376912</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.852405538020692</v>
+        <v>-1.850633979499668</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4246334836177352</v>
+        <v>0.4229225248328814</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3215806494467374</v>
+        <v>-0.3213697308844832</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2313571805401533</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.584587758550501</v>
+        <v>-1.58373936224412</v>
       </c>
       <c r="F8" t="n">
-        <v>0.595326413208067</v>
+        <v>0.5924380881204803</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3493337545935112</v>
+        <v>-0.3482067569026599</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2070566104787943</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.132503495597442</v>
+        <v>-1.132321696388932</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6784739732907759</v>
+        <v>0.6744381882637609</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3238960315741707</v>
+        <v>-0.322792644170139</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1949848216918832</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.566291828216234</v>
+        <v>-0.5657865680782965</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6450780095941392</v>
+        <v>0.6406392756720712</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.3062701654538457</v>
+        <v>-0.3048504002064324</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1863254065744101</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.0839257983980318</v>
+        <v>-0.08545259694569346</v>
       </c>
       <c r="F11" t="n">
-        <v>0.601727948974397</v>
+        <v>0.5971255170637138</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2577478780015093</v>
+        <v>-0.2561030280197502</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.1680732378972024</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5723111056164083</v>
+        <v>0.5693755599551825</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5471330957520826</v>
+        <v>0.5419404066709116</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.1833046436595933</v>
+        <v>-0.1805154817766485</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.127873458107417</v>
       </c>
       <c r="E13" t="n">
-        <v>1.189472984944559</v>
+        <v>1.186550031436304</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3683512818973865</v>
+        <v>0.3635048770229017</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.07312802722590908</v>
+        <v>-0.07090236418838991</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.05762039734771134</v>
       </c>
       <c r="E14" t="n">
-        <v>1.786443346984664</v>
+        <v>1.783928064428826</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1116917239780964</v>
+        <v>0.1074434463697058</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0471884203871942</v>
+        <v>0.0494990804572636</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.04522439469957183</v>
       </c>
       <c r="E15" t="n">
-        <v>2.450018328142608</v>
+        <v>2.44979009537002</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1217195715195826</v>
+        <v>-0.1273215055722918</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1860169068859149</v>
+        <v>0.1889241202029572</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.1732598469761328</v>
       </c>
       <c r="E16" t="n">
-        <v>2.947587808653454</v>
+        <v>2.948511757877657</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.4658568161242798</v>
+        <v>-0.469831214405564</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3569711236503826</v>
+        <v>0.3598767629483036</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.3184427936495024</v>
       </c>
       <c r="E17" t="n">
-        <v>3.467555581260408</v>
+        <v>3.469123304305224</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.7816081998954404</v>
+        <v>-0.7845201352698467</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5237116912271284</v>
+        <v>0.5268140829152119</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.4805074492616812</v>
       </c>
       <c r="E18" t="n">
-        <v>3.94733077560495</v>
+        <v>3.949438387208371</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.113996965778749</v>
+        <v>-1.115848012265399</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6473367270332057</v>
+        <v>0.6503714358990733</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.6602559306931544</v>
       </c>
       <c r="E19" t="n">
-        <v>4.21000466058673</v>
+        <v>4.212612810270725</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.490584975597742</v>
+        <v>-1.49064321430523</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8590926674600298</v>
+        <v>0.861831460731093</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.8522314812212856</v>
       </c>
       <c r="E20" t="n">
-        <v>4.470002713062299</v>
+        <v>4.474205344116172</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.845327961041763</v>
+        <v>-1.844750296024246</v>
       </c>
       <c r="G20" t="n">
-        <v>1.045730410749137</v>
+        <v>1.048609291721996</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.046476026170793</v>
       </c>
       <c r="E21" t="n">
-        <v>4.682572421374835</v>
+        <v>4.687851681507678</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.222857234295294</v>
+        <v>-2.221890786554815</v>
       </c>
       <c r="G21" t="n">
-        <v>1.260058298420167</v>
+        <v>1.263445587569206</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.231977430041524</v>
       </c>
       <c r="E22" t="n">
-        <v>4.766510139056437</v>
+        <v>4.771871248183587</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.519790432461744</v>
+        <v>-2.518838150893357</v>
       </c>
       <c r="G22" t="n">
-        <v>1.417227255720283</v>
+        <v>1.420644451232627</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.400115393785593</v>
       </c>
       <c r="E23" t="n">
-        <v>4.836056599911987</v>
+        <v>4.842343232282461</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.723768357400661</v>
+        <v>-2.722589417078807</v>
       </c>
       <c r="G23" t="n">
-        <v>1.540945158654517</v>
+        <v>1.545119457364207</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.546509448767043</v>
       </c>
       <c r="E24" t="n">
-        <v>4.865440388868428</v>
+        <v>4.872932719885819</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.846591430464435</v>
+        <v>-2.844820658952972</v>
       </c>
       <c r="G24" t="n">
-        <v>1.597307635350052</v>
+        <v>1.600759459283065</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.669857475954329</v>
       </c>
       <c r="E25" t="n">
-        <v>4.931769554640039</v>
+        <v>4.939653816418634</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.037411342558839</v>
+        <v>-3.034791387731434</v>
       </c>
       <c r="G25" t="n">
-        <v>1.700154044735839</v>
+        <v>1.703705031873494</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.767374086843996</v>
       </c>
       <c r="E26" t="n">
-        <v>5.025077408150744</v>
+        <v>5.034595501777249</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.163217181857478</v>
+        <v>-3.16043510306058</v>
       </c>
       <c r="G26" t="n">
-        <v>1.731552578167545</v>
+        <v>1.735226338796661</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.834911190655162</v>
       </c>
       <c r="E27" t="n">
-        <v>4.98058775768718</v>
+        <v>4.991372936706332</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.214379099376236</v>
+        <v>-3.209890783851847</v>
       </c>
       <c r="G27" t="n">
-        <v>1.752839612764016</v>
+        <v>1.756412636169368</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.869368624447186</v>
       </c>
       <c r="E28" t="n">
-        <v>4.992869828890689</v>
+        <v>5.004802467849269</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.231364339714192</v>
+        <v>-3.226916161677396</v>
       </c>
       <c r="G28" t="n">
-        <v>1.775406324906104</v>
+        <v>1.779347668785841</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.870739280179393</v>
       </c>
       <c r="E29" t="n">
-        <v>4.970518757368219</v>
+        <v>4.983025913306075</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.146565633573239</v>
+        <v>-3.142625076703062</v>
       </c>
       <c r="G29" t="n">
-        <v>1.710948667869719</v>
+        <v>1.715192223420746</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.844224934244064</v>
       </c>
       <c r="E30" t="n">
-        <v>4.887333420826599</v>
+        <v>4.900786562256356</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.110209726918996</v>
+        <v>-3.106101537012401</v>
       </c>
       <c r="G30" t="n">
-        <v>1.660312472737476</v>
+        <v>1.664935366896736</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.797623739946969</v>
       </c>
       <c r="E31" t="n">
-        <v>4.739750239975204</v>
+        <v>4.753387541642153</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.050229367273151</v>
+        <v>-3.045828409809995</v>
       </c>
       <c r="G31" t="n">
-        <v>1.601163982197239</v>
+        <v>1.606046589511514</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.737306159655471</v>
       </c>
       <c r="E32" t="n">
-        <v>4.711908989757638</v>
+        <v>4.726007479027127</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.935119774913311</v>
+        <v>-2.930700716230259</v>
       </c>
       <c r="G32" t="n">
-        <v>1.552265504174912</v>
+        <v>1.555799177102232</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.668322364980942</v>
       </c>
       <c r="E33" t="n">
-        <v>4.548747741662729</v>
+        <v>4.562761233899669</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.85336128670515</v>
+        <v>-2.848495206591648</v>
       </c>
       <c r="G33" t="n">
-        <v>1.478472339730093</v>
+        <v>1.482985052550862</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.594480372269438</v>
       </c>
       <c r="E34" t="n">
-        <v>4.414370581239047</v>
+        <v>4.428565085674936</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.76815569662134</v>
+        <v>-2.764046719705185</v>
       </c>
       <c r="G34" t="n">
-        <v>1.418801274841584</v>
+        <v>1.423570552779125</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.517820144934273</v>
       </c>
       <c r="E35" t="n">
-        <v>4.205761105035703</v>
+        <v>4.219399980721773</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.745644862158058</v>
+        <v>-2.741595697968513</v>
       </c>
       <c r="G35" t="n">
-        <v>1.337364673543729</v>
+        <v>1.342009603970687</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.440094471777149</v>
       </c>
       <c r="E36" t="n">
-        <v>3.96134426784189</v>
+        <v>3.973500417515695</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.669751956205424</v>
+        <v>-2.666918721787083</v>
       </c>
       <c r="G36" t="n">
-        <v>1.336245545948484</v>
+        <v>1.340227814325375</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.362274750669218</v>
       </c>
       <c r="E37" t="n">
-        <v>3.742500519311848</v>
+        <v>3.754305662721604</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.587917128069881</v>
+        <v>-2.585451427116363</v>
       </c>
       <c r="G37" t="n">
-        <v>1.226120872145803</v>
+        <v>1.229539641677268</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.284492005361482</v>
       </c>
       <c r="E38" t="n">
-        <v>3.528348921782405</v>
+        <v>3.540331929352867</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.490308267310222</v>
+        <v>-2.487637156861374</v>
       </c>
       <c r="G38" t="n">
-        <v>1.144874727161625</v>
+        <v>1.149160781228927</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.20697520984054</v>
       </c>
       <c r="E39" t="n">
-        <v>3.278885779285701</v>
+        <v>3.290524076668599</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.444979664655004</v>
+        <v>-2.443116026015384</v>
       </c>
       <c r="G39" t="n">
-        <v>1.074402743062751</v>
+        <v>1.079670985061744</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.128444367438411</v>
       </c>
       <c r="E40" t="n">
-        <v>3.070277877101478</v>
+        <v>3.082293939073488</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.395147793293746</v>
+        <v>-2.393254248290821</v>
       </c>
       <c r="G40" t="n">
-        <v>1.015517113715771</v>
+        <v>1.020147877970637</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.047888451801219</v>
       </c>
       <c r="E41" t="n">
-        <v>2.849616136486335</v>
+        <v>2.86142127989609</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.378424627139487</v>
+        <v>-2.377091432943745</v>
       </c>
       <c r="G41" t="n">
-        <v>1.001372977891763</v>
+        <v>1.006952875676774</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.9652222664353144</v>
       </c>
       <c r="E42" t="n">
-        <v>2.589720395253651</v>
+        <v>2.60165146019311</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.347817038316234</v>
+        <v>-2.346524768617646</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9394809720230985</v>
+        <v>0.9453615074602779</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.8810986312068384</v>
       </c>
       <c r="E43" t="n">
-        <v>2.419021169586834</v>
+        <v>2.429722925592557</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.347942172836377</v>
+        <v>-2.347388905115241</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8920211474776402</v>
+        <v>0.8972941115339974</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.7959006915260675</v>
       </c>
       <c r="E44" t="n">
-        <v>2.213487326746511</v>
+        <v>2.224587309589924</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.296601604147352</v>
+        <v>-2.296241940778135</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7922330572445404</v>
+        <v>0.7971361268073921</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.7113459735113584</v>
       </c>
       <c r="E45" t="n">
-        <v>2.07308482112649</v>
+        <v>2.08426665296421</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.221736532680928</v>
+        <v>-2.221901017679104</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7326926359430993</v>
+        <v>0.7373249742170873</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.6290445153462302</v>
       </c>
       <c r="E46" t="n">
-        <v>1.925396180993968</v>
+        <v>1.936101085037934</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.152157017423831</v>
+        <v>-2.152322289431567</v>
       </c>
       <c r="G46" t="n">
-        <v>0.677584652487241</v>
+        <v>0.6823240240614773</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.5501454641747414</v>
       </c>
       <c r="E47" t="n">
-        <v>1.770526865630072</v>
+        <v>1.780553367432757</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.105348049785031</v>
+        <v>-2.10580766336845</v>
       </c>
       <c r="G47" t="n">
-        <v>0.6360809162967844</v>
+        <v>0.6403653963449649</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.4761425122614521</v>
       </c>
       <c r="E48" t="n">
-        <v>1.641687104475125</v>
+        <v>1.651345285803426</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.946826223050156</v>
+        <v>-1.947431433402296</v>
       </c>
       <c r="G48" t="n">
-        <v>0.5348714867971502</v>
+        <v>0.5393369790442802</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.406770728042405</v>
       </c>
       <c r="E49" t="n">
-        <v>1.542704912032131</v>
+        <v>1.55214273068345</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.872348360287571</v>
+        <v>-1.872713532723713</v>
       </c>
       <c r="G49" t="n">
-        <v>0.4708529810956086</v>
+        <v>0.4750823704745435</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.3412301334782282</v>
       </c>
       <c r="E50" t="n">
-        <v>1.482456182126105</v>
+        <v>1.490982643706191</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.759304668024438</v>
+        <v>-1.760231765286884</v>
       </c>
       <c r="G50" t="n">
-        <v>0.413875062923645</v>
+        <v>0.4189402564559906</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.2801708711194482</v>
       </c>
       <c r="E51" t="n">
-        <v>1.360313872332293</v>
+        <v>1.368533400183725</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.70027580293742</v>
+        <v>-1.700907771614622</v>
       </c>
       <c r="G51" t="n">
-        <v>0.3644634546677739</v>
+        <v>0.3691052370564896</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.2242317864703788</v>
       </c>
       <c r="E52" t="n">
-        <v>1.242659091053309</v>
+        <v>1.2511194438303</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.649106802332616</v>
+        <v>-1.649651412948586</v>
       </c>
       <c r="G52" t="n">
-        <v>0.3209213637152329</v>
+        <v>0.3249854810864313</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.1730742797388373</v>
       </c>
       <c r="E53" t="n">
-        <v>1.207054778529488</v>
+        <v>1.215954282641322</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.622721519802253</v>
+        <v>-1.623145717955443</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2856759275510679</v>
+        <v>0.2900170722876152</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.126408368440232</v>
       </c>
       <c r="E54" t="n">
-        <v>1.112572706754293</v>
+        <v>1.120669461114263</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.495410131214089</v>
+        <v>-1.495866596759266</v>
       </c>
       <c r="G54" t="n">
-        <v>0.2523901451929222</v>
+        <v>0.2563661174933278</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.08357893177087254</v>
       </c>
       <c r="E55" t="n">
-        <v>1.054492975197418</v>
+        <v>1.061810590092345</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.469419927483172</v>
+        <v>-1.470461928141473</v>
       </c>
       <c r="G55" t="n">
-        <v>0.220964853436154</v>
+        <v>0.2246323179887846</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.0438521555308533</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9827806640309591</v>
+        <v>0.990438267056087</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.47194622817286</v>
+        <v>-1.472893787683883</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2249203634879827</v>
+        <v>0.2281864531646816</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.007178679222629538</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9478862341308442</v>
+        <v>0.9553880092629633</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.475061212013914</v>
+        <v>-1.475749058369922</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1828940529492543</v>
+        <v>0.1859555201401841</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.02695505023165538</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9109534494686449</v>
+        <v>0.9183403212049089</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.475942662721842</v>
+        <v>-1.477005912638281</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1703806009349138</v>
+        <v>0.1733035544431692</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.05920021464263869</v>
       </c>
       <c r="E59" t="n">
-        <v>0.8797957409624977</v>
+        <v>0.887188908775247</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.484375470164211</v>
+        <v>-1.485285253216323</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1578026141366</v>
+        <v>0.1605130750634798</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.09019414725079812</v>
       </c>
       <c r="E60" t="n">
-        <v>0.8681464254457514</v>
+        <v>0.8746266621681462</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.522658763232486</v>
+        <v>-1.523966773122287</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1494681828893129</v>
+        <v>0.1513963563129062</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.12077911867432</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9059370505290595</v>
+        <v>0.9120835951977387</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.51776277675568</v>
+        <v>-1.519305315494555</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1322893381994372</v>
+        <v>0.133136160486697</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.1515038964416367</v>
       </c>
       <c r="E62" t="n">
-        <v>0.8803025751195566</v>
+        <v>0.8862901438569843</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.545598517906322</v>
+        <v>-1.546407563734671</v>
       </c>
       <c r="G62" t="n">
-        <v>0.154797811634037</v>
+        <v>0.1561058215238379</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.1821593947850025</v>
       </c>
       <c r="E63" t="n">
-        <v>0.8424694515199732</v>
+        <v>0.8484633163338863</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.593570685675764</v>
+        <v>-1.594868464441277</v>
       </c>
       <c r="G63" t="n">
-        <v>0.1328292267580433</v>
+        <v>0.1337531759822468</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.2126828613636802</v>
       </c>
       <c r="E64" t="n">
-        <v>0.8181240977708155</v>
+        <v>0.824350917414681</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.584988346416872</v>
+        <v>-1.586154694585756</v>
       </c>
       <c r="G64" t="n">
-        <v>0.1249622791897825</v>
+        <v>0.1263033434811307</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.2429103964670652</v>
       </c>
       <c r="E65" t="n">
-        <v>0.7896611100003351</v>
+        <v>0.7957305277320705</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.650508466360135</v>
+        <v>-1.650911415255187</v>
       </c>
       <c r="G65" t="n">
-        <v>0.1041993929607051</v>
+        <v>0.1057545238525502</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.2722210040452378</v>
       </c>
       <c r="E66" t="n">
-        <v>0.7365033362357682</v>
+        <v>0.7422201736843324</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.671098997495429</v>
+        <v>-1.67199540138501</v>
       </c>
       <c r="G66" t="n">
-        <v>0.08944611173675376</v>
+        <v>0.09049440847154001</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.2998406560236782</v>
       </c>
       <c r="E67" t="n">
-        <v>0.7327115241725549</v>
+        <v>0.7384850263094859</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.74178426118524</v>
+        <v>-1.74247368156037</v>
       </c>
       <c r="G67" t="n">
-        <v>0.08109908833649622</v>
+        <v>0.08211433066973516</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.3242521809626751</v>
       </c>
       <c r="E68" t="n">
-        <v>0.7241787665159839</v>
+        <v>0.7293100688514241</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.772527215652924</v>
+        <v>-1.773680971668838</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0879366273994264</v>
+        <v>0.08986637484214105</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.3441061149222976</v>
       </c>
       <c r="E69" t="n">
-        <v>0.7147031714057538</v>
+        <v>0.7194110625975642</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.820490726317199</v>
+        <v>-1.820667016458785</v>
       </c>
       <c r="G69" t="n">
-        <v>0.1021925185810467</v>
+        <v>0.1040640273162732</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.3582969516523911</v>
       </c>
       <c r="E70" t="n">
-        <v>0.650228200159035</v>
+        <v>0.6555578289037591</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.906059914818029</v>
+        <v>-1.906234630940493</v>
       </c>
       <c r="G70" t="n">
-        <v>0.09294043418604128</v>
+        <v>0.09472379785047497</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.3661971508286345</v>
       </c>
       <c r="E71" t="n">
-        <v>0.5814215282904968</v>
+        <v>0.5868644864119545</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.972738512834569</v>
+        <v>-1.973320112899889</v>
       </c>
       <c r="G71" t="n">
-        <v>0.08242913449399529</v>
+        <v>0.08450054365762701</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.3678524640302312</v>
       </c>
       <c r="E72" t="n">
-        <v>0.4899993496871102</v>
+        <v>0.4952439813992841</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.010240305409118</v>
+        <v>-2.010116744908096</v>
       </c>
       <c r="G72" t="n">
-        <v>0.08743136726148888</v>
+        <v>0.08934222647474792</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.3639642877950631</v>
       </c>
       <c r="E73" t="n">
-        <v>0.4371343434791053</v>
+        <v>0.4416942768735134</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.105998906691688</v>
+        <v>-2.106656846684392</v>
       </c>
       <c r="G73" t="n">
-        <v>0.07813048827372311</v>
+        <v>0.0799185739955207</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.3553429045129869</v>
       </c>
       <c r="E74" t="n">
-        <v>0.3359532463236545</v>
+        <v>0.3415284220513015</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.125988949532207</v>
+        <v>-2.126528051081253</v>
       </c>
       <c r="G74" t="n">
-        <v>0.05206787966322633</v>
+        <v>0.05398503495297056</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.3422310787370205</v>
       </c>
       <c r="E75" t="n">
-        <v>0.2604884735720143</v>
+        <v>0.2662430874794896</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.151326722337345</v>
+        <v>-2.152454507037757</v>
       </c>
       <c r="G75" t="n">
-        <v>0.05365606495661872</v>
+        <v>0.05538433795180688</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.3243895544807665</v>
       </c>
       <c r="E76" t="n">
-        <v>0.2298800977392011</v>
+        <v>0.2364988481442705</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.211119773707755</v>
+        <v>-2.211958725899408</v>
       </c>
       <c r="G76" t="n">
-        <v>0.04128899672055922</v>
+        <v>0.04304560205993078</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.3016521829817239</v>
       </c>
       <c r="E77" t="n">
-        <v>0.1287383510617828</v>
+        <v>0.1347463820477875</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.20618837180072</v>
+        <v>-2.207303564348161</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03269957437562136</v>
+        <v>0.03357315498794325</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.274319614794481</v>
       </c>
       <c r="E78" t="n">
-        <v>0.1167679356442911</v>
+        <v>0.1220629359683466</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.203056860758892</v>
+        <v>-2.204895315092571</v>
       </c>
       <c r="G78" t="n">
-        <v>0.06027324134256681</v>
+        <v>0.06129635377141226</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.2432536592113841</v>
       </c>
       <c r="E79" t="n">
-        <v>0.06705096767888757</v>
+        <v>0.07246874149440455</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.216996374097131</v>
+        <v>-2.219116577853523</v>
       </c>
       <c r="G79" t="n">
-        <v>0.05421011968731657</v>
+        <v>0.0549782410185113</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.2095608202352162</v>
       </c>
       <c r="E80" t="n">
-        <v>0.09818978795557907</v>
+        <v>0.1036516343064925</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.260752531650168</v>
+        <v>-2.262298218427286</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0984699633591706</v>
+        <v>0.09916410579166421</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.1746198714742222</v>
       </c>
       <c r="E81" t="n">
-        <v>0.1096722574454676</v>
+        <v>0.1147799494940883</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.252034826746845</v>
+        <v>-2.253494729481851</v>
       </c>
       <c r="G81" t="n">
-        <v>0.09861634713745157</v>
+        <v>0.09941122679370841</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1396823555979792</v>
       </c>
       <c r="E82" t="n">
-        <v>0.1460808937402738</v>
+        <v>0.1505605521594956</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.209404879875097</v>
+        <v>-2.210967093852989</v>
       </c>
       <c r="G82" t="n">
-        <v>0.07612361389406475</v>
+        <v>0.07703339694617653</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.105344341654202</v>
       </c>
       <c r="E83" t="n">
-        <v>0.2595834125772664</v>
+        <v>0.2622671151790841</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.165617241939634</v>
+        <v>-2.167453335244631</v>
       </c>
       <c r="G83" t="n">
-        <v>0.09838654034574167</v>
+        <v>0.09913105139011689</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.07213960109468086</v>
       </c>
       <c r="E84" t="n">
-        <v>0.348687061014977</v>
+        <v>0.3521325888715042</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.075635290832237</v>
+        <v>-2.078570049483902</v>
       </c>
       <c r="G84" t="n">
-        <v>0.1368650117850583</v>
+        <v>0.1378912722521463</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.04053468620624974</v>
       </c>
       <c r="E85" t="n">
-        <v>0.4841518686514781</v>
+        <v>0.4866514110161037</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.928716346050031</v>
+        <v>-1.931289080303797</v>
       </c>
       <c r="G85" t="n">
-        <v>0.1184631542379319</v>
+        <v>0.1188629550947423</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.01093349350000727</v>
       </c>
       <c r="E86" t="n">
-        <v>0.6682995136906882</v>
+        <v>0.6696405779820364</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.794232939335661</v>
+        <v>-1.797431346190144</v>
       </c>
       <c r="G86" t="n">
-        <v>0.1911938557758728</v>
+        <v>0.1918092972523014</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.01594830795118174</v>
       </c>
       <c r="E87" t="n">
-        <v>0.9073284834322893</v>
+        <v>0.9081501214136083</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.574891013753728</v>
+        <v>-1.57818464876505</v>
       </c>
       <c r="G87" t="n">
-        <v>0.1966431099738158</v>
+        <v>0.1974316935535874</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.03857451973500209</v>
       </c>
       <c r="E88" t="n">
-        <v>1.073417407092817</v>
+        <v>1.073425277188423</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.405668218022691</v>
+        <v>-1.408659641362723</v>
       </c>
       <c r="G88" t="n">
-        <v>0.2154668046454507</v>
+        <v>0.2163466813342578</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.05513591783379105</v>
       </c>
       <c r="E89" t="n">
-        <v>1.255770670333744</v>
+        <v>1.25514893278083</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.199816423319866</v>
+        <v>-1.202325409799219</v>
       </c>
       <c r="G89" t="n">
-        <v>0.250070041008125</v>
+        <v>0.2507626094214974</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.06358794345682878</v>
       </c>
       <c r="E90" t="n">
-        <v>1.360436645823754</v>
+        <v>1.359622877938042</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.9342030576290569</v>
+        <v>-0.936944211928802</v>
       </c>
       <c r="G90" t="n">
-        <v>0.2358660924575076</v>
+        <v>0.2361006213065814</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.06194031140315356</v>
       </c>
       <c r="E91" t="n">
-        <v>1.501300339046317</v>
+        <v>1.499782984613383</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.6272000721340855</v>
+        <v>-0.6297830375121399</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1613646194081035</v>
+        <v>0.1619611726550765</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.04922885629100399</v>
       </c>
       <c r="E92" t="n">
-        <v>1.52248191436166</v>
+        <v>1.520781973710656</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4200654518474002</v>
+        <v>-0.4230671063117206</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1454481380535109</v>
+        <v>0.1455236909713334</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.02562987476120503</v>
       </c>
       <c r="E93" t="n">
-        <v>1.56528421632719</v>
+        <v>1.563012906735153</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2136627504521197</v>
+        <v>-0.2164959848704609</v>
       </c>
       <c r="G93" t="n">
-        <v>0.120567617803111</v>
+        <v>0.1204275301013152</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.006804478085414407</v>
       </c>
       <c r="E94" t="n">
-        <v>1.526470478815036</v>
+        <v>1.524476196588348</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.01750691353650667</v>
+        <v>-0.01990729269649022</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1126865040627584</v>
+        <v>0.1131162112828735</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.04314806986336235</v>
       </c>
       <c r="E95" t="n">
-        <v>1.536122364066852</v>
+        <v>1.534458625855637</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1347180497036042</v>
+        <v>0.1315904737095797</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0510841177124134</v>
+        <v>0.05162400627101953</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.07702118849878635</v>
       </c>
       <c r="E96" t="n">
-        <v>1.469324140597093</v>
+        <v>1.468046037070597</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2450489200111758</v>
+        <v>0.2415970960781634</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.01084409059604086</v>
+        <v>-0.01038132897437846</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1020176820031997</v>
       </c>
       <c r="E97" t="n">
-        <v>1.420716856112207</v>
+        <v>1.419465510910773</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2680170070291955</v>
+        <v>0.26419843664092</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.03320303221411713</v>
+        <v>-0.03241444863434549</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1163726064421154</v>
       </c>
       <c r="E98" t="n">
-        <v>1.286750514679184</v>
+        <v>1.285892674258075</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3191206858404649</v>
+        <v>0.3156940462133933</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.0878167736658871</v>
+        <v>-0.08700615381841724</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1205934444895041</v>
       </c>
       <c r="E99" t="n">
-        <v>1.189606776569869</v>
+        <v>1.189046425762686</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3402141160850154</v>
+        <v>0.3367827544005799</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.09167784257043768</v>
+        <v>-0.09078222569041759</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1243334925604992</v>
       </c>
       <c r="E100" t="n">
-        <v>1.081211949781498</v>
+        <v>1.080840481268871</v>
       </c>
       <c r="F100" t="n">
-        <v>0.360245083422688</v>
+        <v>0.3572387069010037</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1419882157445716</v>
+        <v>-0.140760480829957</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1341582913565872</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9745831724472251</v>
+        <v>0.9738229212116369</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3324447577022752</v>
+        <v>0.3292636650581265</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1491500027464897</v>
+        <v>-0.1479537482143012</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1620529437245365</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9274979644526363</v>
+        <v>0.9269265955116042</v>
       </c>
       <c r="F102" t="n">
-        <v>0.3020567445464442</v>
+        <v>0.2990157396040912</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1754156598236343</v>
+        <v>-0.1741328342397742</v>
       </c>
     </row>
   </sheetData>
